--- a/data/trans_orig/IMC_CAT-Clase-trans_orig.xlsx
+++ b/data/trans_orig/IMC_CAT-Clase-trans_orig.xlsx
@@ -3356,12 +3356,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3371,12 +3371,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -10099,12 +10099,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1078</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -10114,12 +10114,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -10668,12 +10668,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -10683,12 +10683,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -11806,12 +11806,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1112</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -11821,12 +11821,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -12071,12 +12071,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>1147</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -12086,12 +12086,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -12375,97 +12375,97 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>1106</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="inlineStr">
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>11,83%</t>
-        </is>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K32" s="2" t="inlineStr">
+      <c r="R32" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L32" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M32" s="2" t="inlineStr">
-        <is>
-          <t>1147</t>
-        </is>
-      </c>
-      <c r="N32" s="2" t="inlineStr">
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U32" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O32" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P32" s="2" t="inlineStr">
-        <is>
-          <t>9,99%</t>
-        </is>
-      </c>
-      <c r="Q32" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R32" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S32" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T32" s="2" t="inlineStr">
-        <is>
-          <t>1169</t>
-        </is>
-      </c>
-      <c r="U32" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/IMC_CAT-Clase-trans_orig.xlsx
+++ b/data/trans_orig/IMC_CAT-Clase-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Grado de obesidad del entrevistado en País Vasco</t>
+          <t>Grado de obesidad del entrevistado en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4771,7 +4771,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Grado de obesidad del entrevistado en Andalucia</t>
+          <t>Grado de obesidad del entrevistado en Andalucia (tasa de respuesta: 96,4%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8996,7 +8996,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Grado de obesidad del entrevistado en C.Valenciana</t>
+          <t>Grado de obesidad del entrevistado en C.Valenciana (tasa de respuesta: 98,07%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -13221,7 +13221,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Grado de obesidad del entrevistado en Barcelona</t>
+          <t>Grado de obesidad del entrevistado en Barcelona (tasa de respuesta: 94,22%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/IMC_CAT-Clase-trans_orig.xlsx
+++ b/data/trans_orig/IMC_CAT-Clase-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10167</t>
+          <t>18282</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7809</t>
+          <t>13471</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13676</t>
+          <t>24284</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8413</t>
+          <t>16890</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6309</t>
+          <t>11424</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>11412</t>
+          <t>23015</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>8,9%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>18580</t>
+          <t>35172</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>15127</t>
+          <t>28298</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>22560</t>
+          <t>44021</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>12,07%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>30064</t>
+          <t>66675</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26276</t>
+          <t>57360</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>33800</t>
+          <t>77003</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,78%</t>
+          <t>38,13%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,9%</t>
+          <t>32,8%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>43,6%</t>
+          <t>44,04%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17375</t>
+          <t>44642</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14348</t>
+          <t>36725</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20438</t>
+          <t>54595</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>23,53%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>18,07%</t>
+          <t>19,35%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>25,73%</t>
+          <t>28,77%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>47439</t>
+          <t>111317</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>42638</t>
+          <t>98357</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>52836</t>
+          <t>124556</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>30,23%</t>
+          <t>30,53%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>27,17%</t>
+          <t>26,98%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>33,67%</t>
+          <t>34,16%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>36930</t>
+          <t>89400</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>33444</t>
+          <t>79825</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>40712</t>
+          <t>98568</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>47,64%</t>
+          <t>51,13%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>43,14%</t>
+          <t>45,65%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>52,52%</t>
+          <t>56,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -997,32 +997,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>50636</t>
+          <t>124102</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>47239</t>
+          <t>114238</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>54028</t>
+          <t>133946</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>63,76%</t>
+          <t>65,4%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>59,48%</t>
+          <t>60,2%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>68,03%</t>
+          <t>70,59%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1032,32 +1032,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>87566</t>
+          <t>213502</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>81755</t>
+          <t>200136</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>92884</t>
+          <t>227968</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>55,8%</t>
+          <t>58,56%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>52,09%</t>
+          <t>54,89%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>59,18%</t>
+          <t>62,52%</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>498</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -1085,12 +1085,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1857</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1110,32 +1110,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2998</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1748</t>
+          <t>2184</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4753</t>
+          <t>6836</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1145,32 +1145,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>3354</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>2044</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>5302</t>
+          <t>8197</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>2,25%</t>
         </is>
       </c>
     </row>
@@ -1188,17 +1188,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>77517</t>
+          <t>174855</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>77517</t>
+          <t>174855</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>77517</t>
+          <t>174855</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1223,17 +1223,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>79422</t>
+          <t>189749</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>79422</t>
+          <t>189749</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>79422</t>
+          <t>189749</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1258,17 +1258,17 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>156939</t>
+          <t>364604</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>156939</t>
+          <t>364604</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>156939</t>
+          <t>364604</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1305,32 +1305,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5720</t>
+          <t>12056</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4008</t>
+          <t>7815</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7949</t>
+          <t>17533</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>16,87%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1340,32 +1340,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6210</t>
+          <t>12627</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>8952</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8854</t>
+          <t>17736</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>14,62%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1375,32 +1375,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>11930</t>
+          <t>24683</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>9388</t>
+          <t>19379</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>15377</t>
+          <t>31654</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>14,26%</t>
+          <t>14,06%</t>
         </is>
       </c>
     </row>
@@ -1418,32 +1418,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18782</t>
+          <t>46465</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15906</t>
+          <t>39090</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21609</t>
+          <t>55181</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>41,56%</t>
+          <t>44,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>35,2%</t>
+          <t>37,62%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>47,82%</t>
+          <t>53,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1453,32 +1453,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>16036</t>
+          <t>32684</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>13093</t>
+          <t>27210</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>19179</t>
+          <t>40273</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>25,6%</t>
+          <t>26,95%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>20,9%</t>
+          <t>22,43%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>30,61%</t>
+          <t>33,21%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1488,32 +1488,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>34818</t>
+          <t>79149</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>30819</t>
+          <t>68992</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>39116</t>
+          <t>89614</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>32,29%</t>
+          <t>35,15%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>28,58%</t>
+          <t>30,64%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>36,27%</t>
+          <t>39,8%</t>
         </is>
       </c>
     </row>
@@ -1531,32 +1531,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20591</t>
+          <t>45371</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17773</t>
+          <t>36753</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23697</t>
+          <t>52151</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,57%</t>
+          <t>43,67%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,33%</t>
+          <t>35,37%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>52,44%</t>
+          <t>50,19%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1566,32 +1566,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>37318</t>
+          <t>69206</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>33736</t>
+          <t>62733</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>40969</t>
+          <t>76135</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>59,56%</t>
+          <t>57,06%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>53,85%</t>
+          <t>51,72%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>65,39%</t>
+          <t>62,77%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1601,32 +1601,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>57909</t>
+          <t>114577</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>53521</t>
+          <t>104699</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>62509</t>
+          <t>125268</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>53,7%</t>
+          <t>50,88%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>49,63%</t>
+          <t>46,49%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>57,96%</t>
+          <t>55,63%</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1654,12 +1654,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,01%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>0,04%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1679,32 +1679,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3090</t>
+          <t>6769</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>1743</t>
+          <t>4094</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>4876</t>
+          <t>11123</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1714,32 +1714,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>3186</t>
+          <t>6775</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>2034</t>
+          <t>3880</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>5034</t>
+          <t>10939</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>4,86%</t>
         </is>
       </c>
     </row>
@@ -1757,17 +1757,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>45189</t>
+          <t>103898</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45189</t>
+          <t>103898</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>45189</t>
+          <t>103898</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1792,17 +1792,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>62653</t>
+          <t>121286</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>62653</t>
+          <t>121286</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>62653</t>
+          <t>121286</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1827,17 +1827,17 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>107842</t>
+          <t>225185</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>107842</t>
+          <t>225185</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>107842</t>
+          <t>225185</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1874,32 +1874,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>17294</t>
+          <t>29752</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14415</t>
+          <t>23752</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>21296</t>
+          <t>37094</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>20,95%</t>
+          <t>19,61%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>25,8%</t>
+          <t>24,45%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1909,32 +1909,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>4999</t>
+          <t>7923</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>3343</t>
+          <t>4926</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>7029</t>
+          <t>11295</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>14,57%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>20,85%</t>
+          <t>20,77%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1944,32 +1944,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>22293</t>
+          <t>37675</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>18715</t>
+          <t>30886</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>26496</t>
+          <t>44927</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>14,99%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>22,79%</t>
+          <t>21,8%</t>
         </is>
       </c>
     </row>
@@ -1987,32 +1987,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>39172</t>
+          <t>75156</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>35516</t>
+          <t>67436</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>43408</t>
+          <t>83792</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>47,46%</t>
+          <t>49,54%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>43,03%</t>
+          <t>44,45%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>52,6%</t>
+          <t>55,23%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2022,32 +2022,32 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10237</t>
+          <t>17270</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8163</t>
+          <t>13021</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>13053</t>
+          <t>21468</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>30,36%</t>
+          <t>31,76%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>24,21%</t>
+          <t>23,95%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>38,71%</t>
+          <t>39,48%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2057,32 +2057,32 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>49409</t>
+          <t>92426</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>44690</t>
+          <t>83155</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>53775</t>
+          <t>102272</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>42,5%</t>
+          <t>44,85%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>38,44%</t>
+          <t>40,35%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>46,26%</t>
+          <t>49,63%</t>
         </is>
       </c>
     </row>
@@ -2100,32 +2100,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>25177</t>
+          <t>45186</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>21576</t>
+          <t>38069</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>29202</t>
+          <t>53309</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>30,51%</t>
+          <t>29,78%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>26,14%</t>
+          <t>25,09%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>35,38%</t>
+          <t>35,14%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2135,32 +2135,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>17911</t>
+          <t>27833</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>15258</t>
+          <t>23470</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>20438</t>
+          <t>32930</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>53,12%</t>
+          <t>51,19%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>45,25%</t>
+          <t>43,16%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>60,62%</t>
+          <t>60,56%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2170,32 +2170,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>43088</t>
+          <t>73019</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>38169</t>
+          <t>64912</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>47814</t>
+          <t>82402</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>37,07%</t>
+          <t>35,43%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>32,83%</t>
+          <t>31,5%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>41,13%</t>
+          <t>39,99%</t>
         </is>
       </c>
     </row>
@@ -2213,32 +2213,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>890</t>
+          <t>1615</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>490</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2436</t>
+          <t>3930</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2248,32 +2248,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>1348</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>429</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1582</t>
+          <t>3318</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2283,32 +2283,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>1459</t>
+          <t>2963</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>1322</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>3046</t>
+          <t>5872</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,85%</t>
         </is>
       </c>
     </row>
@@ -2326,17 +2326,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>82532</t>
+          <t>151709</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>82532</t>
+          <t>151709</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>82532</t>
+          <t>151709</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2361,17 +2361,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>33717</t>
+          <t>54374</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>33717</t>
+          <t>54374</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>33717</t>
+          <t>54374</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2396,17 +2396,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>116249</t>
+          <t>206083</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>116249</t>
+          <t>206083</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>116249</t>
+          <t>206083</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2443,32 +2443,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>17118</t>
+          <t>33447</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13975</t>
+          <t>27016</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>20495</t>
+          <t>41575</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>19,85%</t>
+          <t>18,72%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>23,76%</t>
+          <t>23,27%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2478,32 +2478,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>15507</t>
+          <t>31218</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>12572</t>
+          <t>24485</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>18800</t>
+          <t>38766</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>20,72%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2513,32 +2513,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>32625</t>
+          <t>64664</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>28273</t>
+          <t>54404</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>37176</t>
+          <t>74502</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>18,07%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>20,59%</t>
+          <t>20,37%</t>
         </is>
       </c>
     </row>
@@ -2556,32 +2556,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>40065</t>
+          <t>82527</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>35999</t>
+          <t>72873</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>44273</t>
+          <t>91707</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>46,46%</t>
+          <t>46,19%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>41,74%</t>
+          <t>40,79%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>51,34%</t>
+          <t>51,33%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2591,32 +2591,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>28505</t>
+          <t>62674</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>24483</t>
+          <t>53698</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>32835</t>
+          <t>72250</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>30,21%</t>
+          <t>33,5%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>25,95%</t>
+          <t>28,7%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>34,8%</t>
+          <t>38,62%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2626,32 +2626,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>68570</t>
+          <t>145202</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>62776</t>
+          <t>132927</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>74038</t>
+          <t>159942</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>37,97%</t>
+          <t>39,7%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>34,76%</t>
+          <t>36,34%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>41,0%</t>
+          <t>43,73%</t>
         </is>
       </c>
     </row>
@@ -2669,32 +2669,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>28731</t>
+          <t>62218</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>25053</t>
+          <t>53576</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>33111</t>
+          <t>71901</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>33,31%</t>
+          <t>34,83%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>29,05%</t>
+          <t>29,99%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>38,39%</t>
+          <t>40,25%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2704,32 +2704,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>48413</t>
+          <t>90485</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>44215</t>
+          <t>80786</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>52740</t>
+          <t>100572</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>51,31%</t>
+          <t>48,36%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>46,86%</t>
+          <t>43,18%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>55,9%</t>
+          <t>53,75%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2739,32 +2739,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>77145</t>
+          <t>152703</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>71444</t>
+          <t>139682</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>82479</t>
+          <t>166481</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>42,72%</t>
+          <t>41,75%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>39,56%</t>
+          <t>38,19%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>45,67%</t>
+          <t>45,52%</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>461</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -2792,12 +2792,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1389</t>
+          <t>1892</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -2807,7 +2807,7 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2817,32 +2817,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>1922</t>
+          <t>2726</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>962</t>
+          <t>1141</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>3279</t>
+          <t>5400</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2852,32 +2852,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>2250</t>
+          <t>3187</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>1273</t>
+          <t>1602</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>3957</t>
+          <t>6080</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>1,66%</t>
         </is>
       </c>
     </row>
@@ -2895,17 +2895,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>86243</t>
+          <t>178653</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>86243</t>
+          <t>178653</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>86243</t>
+          <t>178653</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2930,17 +2930,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>94347</t>
+          <t>187103</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>94347</t>
+          <t>187103</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>94347</t>
+          <t>187103</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2965,17 +2965,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>180590</t>
+          <t>365757</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>180590</t>
+          <t>365757</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>180590</t>
+          <t>365757</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3012,32 +3012,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>6689</t>
+          <t>11643</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>4543</t>
+          <t>8304</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>8812</t>
+          <t>16245</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>11,37%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>24,17%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3047,32 +3047,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>15015</t>
+          <t>30909</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>12140</t>
+          <t>24617</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>18169</t>
+          <t>38754</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>24,97%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>16,76%</t>
+          <t>19,89%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>25,09%</t>
+          <t>31,31%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3082,32 +3082,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>21703</t>
+          <t>42552</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>18253</t>
+          <t>35242</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>25844</t>
+          <t>51715</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>21,62%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>26,28%</t>
         </is>
       </c>
     </row>
@@ -3125,32 +3125,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>16337</t>
+          <t>29886</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>13742</t>
+          <t>24275</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>18872</t>
+          <t>35823</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>44,81%</t>
+          <t>40,93%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>37,69%</t>
+          <t>33,24%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>51,77%</t>
+          <t>49,06%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3160,32 +3160,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>27430</t>
+          <t>39926</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>23699</t>
+          <t>33935</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>31127</t>
+          <t>46597</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>37,88%</t>
+          <t>32,26%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>32,73%</t>
+          <t>27,41%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>42,98%</t>
+          <t>37,64%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3195,32 +3195,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>43767</t>
+          <t>69812</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>39160</t>
+          <t>61252</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>48540</t>
+          <t>78844</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>40,2%</t>
+          <t>35,47%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>35,97%</t>
+          <t>31,12%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>44,58%</t>
+          <t>40,06%</t>
         </is>
       </c>
     </row>
@@ -3238,32 +3238,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>13429</t>
+          <t>31496</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>10971</t>
+          <t>25725</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>16093</t>
+          <t>38076</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>36,84%</t>
+          <t>43,13%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>30,09%</t>
+          <t>35,23%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>44,14%</t>
+          <t>52,14%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3273,32 +3273,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>27325</t>
+          <t>49075</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>24028</t>
+          <t>41640</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>31301</t>
+          <t>56196</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>37,73%</t>
+          <t>39,65%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>33,18%</t>
+          <t>33,64%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>43,22%</t>
+          <t>45,4%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3308,32 +3308,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>40755</t>
+          <t>80571</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>36520</t>
+          <t>71231</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>45542</t>
+          <t>89939</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>37,43%</t>
+          <t>40,94%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>33,54%</t>
+          <t>36,19%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>41,83%</t>
+          <t>45,7%</t>
         </is>
       </c>
     </row>
@@ -3386,32 +3386,32 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2649</t>
+          <t>3872</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>1444</t>
+          <t>2061</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>4827</t>
+          <t>6828</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -3421,32 +3421,32 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>2649</t>
+          <t>3872</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1409</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>4983</t>
+          <t>7039</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>3,58%</t>
         </is>
       </c>
     </row>
@@ -3464,17 +3464,17 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>36455</t>
+          <t>73025</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>36455</t>
+          <t>73025</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>36455</t>
+          <t>73025</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3499,17 +3499,17 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>72419</t>
+          <t>123782</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>72419</t>
+          <t>123782</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>72419</t>
+          <t>123782</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3534,17 +3534,17 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>108874</t>
+          <t>196807</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>108874</t>
+          <t>196807</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>108874</t>
+          <t>196807</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3581,32 +3581,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>4231</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>1458</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2435</t>
+          <t>11212</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>23,15%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3616,32 +3616,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>7560</t>
+          <t>10716</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>5442</t>
+          <t>7908</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>9905</t>
+          <t>14656</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>16,28%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3651,32 +3651,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>8708</t>
+          <t>14947</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>10392</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>11232</t>
+          <t>21802</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>12,62%</t>
         </is>
       </c>
     </row>
@@ -3694,32 +3694,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>2914</t>
+          <t>8224</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1778</t>
+          <t>4869</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>4425</t>
+          <t>13117</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>25,55%</t>
+          <t>27,08%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3729,32 +3729,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>22168</t>
+          <t>38230</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>19014</t>
+          <t>31527</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>25745</t>
+          <t>45368</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>36,44%</t>
+          <t>30,75%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>31,26%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>42,32%</t>
+          <t>36,49%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3764,32 +3764,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>25083</t>
+          <t>46454</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>21696</t>
+          <t>38120</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>28824</t>
+          <t>55915</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>32,09%</t>
+          <t>26,89%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>27,76%</t>
+          <t>22,06%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>36,88%</t>
+          <t>32,36%</t>
         </is>
       </c>
     </row>
@@ -3807,32 +3807,32 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>12337</t>
+          <t>34859</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>10638</t>
+          <t>29019</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>13896</t>
+          <t>39633</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>71,21%</t>
+          <t>71,96%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>61,41%</t>
+          <t>59,91%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>80,22%</t>
+          <t>81,82%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3842,32 +3842,32 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>30306</t>
+          <t>72806</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>26510</t>
+          <t>64954</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>33651</t>
+          <t>80572</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>49,82%</t>
+          <t>58,56%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>43,58%</t>
+          <t>52,24%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>55,32%</t>
+          <t>64,8%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3877,32 +3877,32 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>42642</t>
+          <t>107665</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>38819</t>
+          <t>97815</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>46484</t>
+          <t>117075</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>54,56%</t>
+          <t>62,32%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>49,67%</t>
+          <t>56,61%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>59,48%</t>
+          <t>67,76%</t>
         </is>
       </c>
     </row>
@@ -3920,32 +3920,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>924</t>
+          <t>1125</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>188</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>2138</t>
+          <t>3481</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3955,32 +3955,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>796</t>
+          <t>2583</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>978</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>1637</t>
+          <t>6565</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3990,32 +3990,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>1720</t>
+          <t>3708</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>846</t>
+          <t>1703</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>3061</t>
+          <t>7475</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>4,33%</t>
         </is>
       </c>
     </row>
@@ -4033,17 +4033,17 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>17323</t>
+          <t>48439</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>17323</t>
+          <t>48439</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>17323</t>
+          <t>48439</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4068,17 +4068,17 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>60830</t>
+          <t>124335</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>60830</t>
+          <t>124335</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>60830</t>
+          <t>124335</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4103,17 +4103,17 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>78153</t>
+          <t>172774</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>78153</t>
+          <t>172774</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>78153</t>
+          <t>172774</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4150,32 +4150,32 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>58136</t>
+          <t>109411</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>51696</t>
+          <t>95967</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>64398</t>
+          <t>123805</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>14,98%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4185,32 +4185,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>57703</t>
+          <t>110282</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>51591</t>
+          <t>98248</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>64110</t>
+          <t>123636</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4220,32 +4220,32 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>115838</t>
+          <t>219693</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>107203</t>
+          <t>202513</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>124446</t>
+          <t>240643</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>13,23%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>15,72%</t>
         </is>
       </c>
     </row>
@@ -4263,32 +4263,32 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>147333</t>
+          <t>308933</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>139449</t>
+          <t>290861</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>155376</t>
+          <t>328140</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>42,67%</t>
+          <t>42,29%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>40,39%</t>
+          <t>39,81%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>45,0%</t>
+          <t>44,91%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4298,32 +4298,32 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>121751</t>
+          <t>235426</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>112783</t>
+          <t>217367</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>130317</t>
+          <t>253228</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>30,18%</t>
+          <t>29,41%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>27,96%</t>
+          <t>27,15%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>32,31%</t>
+          <t>31,63%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4333,32 +4333,32 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>269085</t>
+          <t>544359</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>257164</t>
+          <t>517190</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>279832</t>
+          <t>570717</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>35,94%</t>
+          <t>35,55%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>34,35%</t>
+          <t>33,78%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>37,38%</t>
+          <t>37,27%</t>
         </is>
       </c>
     </row>
@@ -4376,32 +4376,32 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>137195</t>
+          <t>308531</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>128956</t>
+          <t>291023</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>145607</t>
+          <t>328020</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>39,74%</t>
+          <t>42,23%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>37,35%</t>
+          <t>39,83%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>42,17%</t>
+          <t>44,9%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4411,32 +4411,32 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>211910</t>
+          <t>433507</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>202701</t>
+          <t>413934</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>220523</t>
+          <t>452215</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>52,53%</t>
+          <t>54,15%</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>50,25%</t>
+          <t>51,7%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>54,67%</t>
+          <t>56,48%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4446,32 +4446,32 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>349105</t>
+          <t>742038</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>338380</t>
+          <t>712095</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>360834</t>
+          <t>769538</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>46,63%</t>
+          <t>48,46%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>45,2%</t>
+          <t>46,51%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>48,2%</t>
+          <t>50,26%</t>
         </is>
       </c>
     </row>
@@ -4489,32 +4489,32 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>2595</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>1484</t>
+          <t>1751</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>4354</t>
+          <t>6476</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4524,32 +4524,32 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>12024</t>
+          <t>21413</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>9240</t>
+          <t>16150</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>15382</t>
+          <t>28150</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4559,32 +4559,32 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>14619</t>
+          <t>25119</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>11452</t>
+          <t>19613</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>18281</t>
+          <t>32065</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,09%</t>
         </is>
       </c>
     </row>
@@ -4602,17 +4602,17 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>345259</t>
+          <t>730580</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>345259</t>
+          <t>730580</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>345259</t>
+          <t>730580</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -4637,17 +4637,17 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>403388</t>
+          <t>800629</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>403388</t>
+          <t>800629</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>403388</t>
+          <t>800629</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -4672,17 +4672,17 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>748647</t>
+          <t>1531209</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>748647</t>
+          <t>1531209</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>748647</t>
+          <t>1531209</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -4966,12 +4966,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>29374</t>
+          <t>29047</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>52779</t>
+          <t>51812</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -4981,12 +4981,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>14,39%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -5001,12 +5001,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>20258</t>
+          <t>20198</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>36986</t>
+          <t>35828</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -5016,12 +5016,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>12,36%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -5036,12 +5036,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>53892</t>
+          <t>54334</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>81854</t>
+          <t>81148</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -5051,12 +5051,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>12,49%</t>
         </is>
       </c>
     </row>
@@ -5079,12 +5079,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>148478</t>
+          <t>150722</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>189934</t>
+          <t>187609</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -5094,12 +5094,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>41,25%</t>
+          <t>41,87%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>52,76%</t>
+          <t>52,12%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>67348</t>
+          <t>68402</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>93180</t>
+          <t>93982</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -5129,12 +5129,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>23,24%</t>
+          <t>23,6%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>32,15%</t>
+          <t>32,43%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -5149,12 +5149,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>226623</t>
+          <t>225555</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>276727</t>
+          <t>274438</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -5164,12 +5164,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>34,88%</t>
+          <t>34,71%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>42,59%</t>
+          <t>42,24%</t>
         </is>
       </c>
     </row>
@@ -5192,12 +5192,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>129569</t>
+          <t>132506</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>171278</t>
+          <t>170072</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -5207,12 +5207,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>35,99%</t>
+          <t>36,81%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>47,58%</t>
+          <t>47,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -5227,12 +5227,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>163795</t>
+          <t>162791</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>191940</t>
+          <t>190697</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -5242,12 +5242,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>56,52%</t>
+          <t>56,17%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>66,23%</t>
+          <t>65,8%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -5262,12 +5262,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>302463</t>
+          <t>304565</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>351434</t>
+          <t>352379</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -5277,12 +5277,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>46,55%</t>
+          <t>46,87%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>54,09%</t>
+          <t>54,23%</t>
         </is>
       </c>
     </row>
@@ -5310,7 +5310,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6727</t>
+          <t>6730</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -5340,12 +5340,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1763</t>
+          <t>1657</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7945</t>
+          <t>7929</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
@@ -5375,12 +5375,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>2716</t>
+          <t>2602</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>11425</t>
+          <t>11638</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -5390,12 +5390,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,79%</t>
         </is>
       </c>
     </row>
@@ -5535,12 +5535,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>44146</t>
+          <t>44518</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>75468</t>
+          <t>74901</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -5550,12 +5550,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,6%</t>
+          <t>23,42%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>27207</t>
+          <t>27711</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>44979</t>
+          <t>45887</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -5585,12 +5585,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>10,95%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>17,77%</t>
+          <t>18,13%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>77313</t>
+          <t>78449</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>112741</t>
+          <t>113904</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -5620,12 +5620,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>13,69%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>19,68%</t>
+          <t>19,88%</t>
         </is>
       </c>
     </row>
@@ -5648,12 +5648,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>119536</t>
+          <t>121028</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>156989</t>
+          <t>155906</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -5663,12 +5663,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>37,37%</t>
+          <t>37,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>49,08%</t>
+          <t>48,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -5683,12 +5683,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>72661</t>
+          <t>71781</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>98906</t>
+          <t>97551</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -5698,12 +5698,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>28,71%</t>
+          <t>28,36%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>39,08%</t>
+          <t>38,54%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -5718,12 +5718,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>199657</t>
+          <t>200550</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>245230</t>
+          <t>246180</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -5733,12 +5733,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>34,85%</t>
+          <t>35,0%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>42,8%</t>
+          <t>42,97%</t>
         </is>
       </c>
     </row>
@@ -5761,12 +5761,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>104722</t>
+          <t>106477</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>140565</t>
+          <t>142107</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -5776,12 +5776,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,74%</t>
+          <t>33,29%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>43,95%</t>
+          <t>44,43%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -5796,12 +5796,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>112578</t>
+          <t>112672</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>140822</t>
+          <t>140468</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -5811,12 +5811,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>44,48%</t>
+          <t>44,52%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>55,64%</t>
+          <t>55,5%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -5831,12 +5831,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>225376</t>
+          <t>224324</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>272339</t>
+          <t>274000</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -5846,12 +5846,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>39,34%</t>
+          <t>39,15%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>47,53%</t>
+          <t>47,82%</t>
         </is>
       </c>
     </row>
@@ -5879,7 +5879,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3624</t>
+          <t>2655</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -5894,7 +5894,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -5909,12 +5909,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>3316</t>
+          <t>3272</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>12826</t>
+          <t>13303</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -5924,12 +5924,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -5944,12 +5944,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>3827</t>
+          <t>3781</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>14063</t>
+          <t>13845</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -5959,12 +5959,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,42%</t>
         </is>
       </c>
     </row>
@@ -6104,12 +6104,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>91211</t>
+          <t>91047</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>407815</t>
+          <t>414440</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -6119,12 +6119,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>19,41%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>86,92%</t>
+          <t>88,33%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -6139,12 +6139,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>12355</t>
+          <t>12299</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>24038</t>
+          <t>24073</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -6154,12 +6154,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>13,1%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>25,65%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -6174,12 +6174,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>107462</t>
+          <t>107711</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>485339</t>
+          <t>479062</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -6189,12 +6189,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>19,13%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>86,2%</t>
+          <t>85,08%</t>
         </is>
       </c>
     </row>
@@ -6217,12 +6217,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>37992</t>
+          <t>36130</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>253382</t>
+          <t>255547</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -6232,12 +6232,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>54,0%</t>
+          <t>54,47%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -6252,12 +6252,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>21145</t>
+          <t>21215</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>35169</t>
+          <t>35412</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -6267,12 +6267,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>22,53%</t>
+          <t>22,6%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>37,47%</t>
+          <t>37,73%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -6287,12 +6287,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>45017</t>
+          <t>49835</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>267024</t>
+          <t>265911</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -6302,12 +6302,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>47,43%</t>
+          <t>47,23%</t>
         </is>
       </c>
     </row>
@@ -6330,12 +6330,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>18308</t>
+          <t>17855</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>129933</t>
+          <t>130613</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -6345,12 +6345,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>27,69%</t>
+          <t>27,84%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -6365,12 +6365,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>35553</t>
+          <t>36270</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>52009</t>
+          <t>51682</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -6380,12 +6380,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>37,88%</t>
+          <t>38,65%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>55,41%</t>
+          <t>55,07%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -6400,12 +6400,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>34003</t>
+          <t>31519</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>187902</t>
+          <t>188763</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -6415,12 +6415,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>33,37%</t>
+          <t>33,53%</t>
         </is>
       </c>
     </row>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7444</t>
+          <t>8615</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -6463,7 +6463,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -6478,12 +6478,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1191</t>
+          <t>1312</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>15251</t>
+          <t>14821</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -6493,12 +6493,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>15,79%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -6513,12 +6513,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>637</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>17582</t>
+          <t>18151</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -6528,12 +6528,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,22%</t>
         </is>
       </c>
     </row>
@@ -6673,12 +6673,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>75628</t>
+          <t>75363</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>113546</t>
+          <t>113204</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -6688,12 +6688,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>21,65%</t>
+          <t>21,58%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -6708,12 +6708,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>96566</t>
+          <t>96153</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>488936</t>
+          <t>475380</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -6723,12 +6723,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>15,36%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>78,09%</t>
+          <t>75,93%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -6743,12 +6743,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>185431</t>
+          <t>187162</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>693894</t>
+          <t>724250</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -6758,12 +6758,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>16,27%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>60,31%</t>
+          <t>62,95%</t>
         </is>
       </c>
     </row>
@@ -6786,12 +6786,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>250115</t>
+          <t>247001</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>299825</t>
+          <t>297625</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -6801,12 +6801,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>47,69%</t>
+          <t>47,09%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>57,17%</t>
+          <t>56,75%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -6821,12 +6821,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>58297</t>
+          <t>64513</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>226548</t>
+          <t>228091</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -6836,12 +6836,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>36,18%</t>
+          <t>36,43%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -6856,12 +6856,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>242307</t>
+          <t>237388</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>527863</t>
+          <t>528458</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -6871,12 +6871,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>21,06%</t>
+          <t>20,63%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>45,88%</t>
+          <t>45,93%</t>
         </is>
       </c>
     </row>
@@ -6899,12 +6899,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>132134</t>
+          <t>131321</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>180162</t>
+          <t>181737</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -6914,12 +6914,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>25,19%</t>
+          <t>25,04%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>34,35%</t>
+          <t>34,65%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -6934,12 +6934,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>79877</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>305573</t>
+          <t>303277</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -6949,12 +6949,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>48,81%</t>
+          <t>48,44%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -6969,12 +6969,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>206068</t>
+          <t>186201</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>441288</t>
+          <t>440114</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -6984,12 +6984,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>16,18%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>38,35%</t>
+          <t>38,25%</t>
         </is>
       </c>
     </row>
@@ -7012,12 +7012,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1551</t>
+          <t>1391</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>11424</t>
+          <t>12032</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -7027,12 +7027,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -7047,12 +7047,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>1514</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>12606</t>
+          <t>12415</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -7062,12 +7062,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -7082,12 +7082,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>4607</t>
+          <t>4687</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>19846</t>
+          <t>19809</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -7097,7 +7097,7 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
@@ -7242,12 +7242,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>25867</t>
+          <t>26293</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>49131</t>
+          <t>47965</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -7257,12 +7257,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>23,59%</t>
+          <t>23,03%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -7277,12 +7277,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>48117</t>
+          <t>50310</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>113769</t>
+          <t>112894</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -7292,12 +7292,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>27,99%</t>
+          <t>27,77%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -7312,12 +7312,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>85222</t>
+          <t>82628</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>150895</t>
+          <t>149390</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -7327,12 +7327,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>13,86%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>24,54%</t>
+          <t>24,3%</t>
         </is>
       </c>
     </row>
@@ -7355,12 +7355,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>85137</t>
+          <t>83716</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>116592</t>
+          <t>114802</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -7370,12 +7370,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>40,87%</t>
+          <t>40,19%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>55,98%</t>
+          <t>55,12%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -7390,12 +7390,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>135784</t>
+          <t>134306</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>280763</t>
+          <t>278999</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -7405,12 +7405,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>33,4%</t>
+          <t>33,04%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>69,07%</t>
+          <t>68,63%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -7425,12 +7425,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>236304</t>
+          <t>238020</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>399022</t>
+          <t>389827</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -7440,12 +7440,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>38,44%</t>
+          <t>38,72%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>64,9%</t>
+          <t>63,41%</t>
         </is>
       </c>
     </row>
@@ -7468,12 +7468,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>50317</t>
+          <t>51286</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>81486</t>
+          <t>81242</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -7483,12 +7483,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>24,16%</t>
+          <t>24,62%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>39,12%</t>
+          <t>39,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -7503,12 +7503,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>68221</t>
+          <t>70886</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>153376</t>
+          <t>154589</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -7518,12 +7518,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>17,44%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>37,73%</t>
+          <t>38,03%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -7538,12 +7538,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>115397</t>
+          <t>123810</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>219827</t>
+          <t>218396</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -7553,12 +7553,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>18,77%</t>
+          <t>20,14%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>35,76%</t>
+          <t>35,52%</t>
         </is>
       </c>
     </row>
@@ -7586,7 +7586,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>30978</t>
+          <t>30002</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -7616,12 +7616,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>3412</t>
+          <t>3421</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>16211</t>
+          <t>15325</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -7636,7 +7636,7 @@
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -7651,12 +7651,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>7548</t>
+          <t>7469</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>36722</t>
+          <t>36912</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -7666,12 +7666,12 @@
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>6,0%</t>
         </is>
       </c>
     </row>
@@ -7811,12 +7811,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>5798</t>
+          <t>4902</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>31983</t>
+          <t>31407</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -7826,12 +7826,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>19,68%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -7846,12 +7846,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>73641</t>
+          <t>72744</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>104666</t>
+          <t>103059</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -7861,12 +7861,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>15,61%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>22,12%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -7881,12 +7881,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>85215</t>
+          <t>84820</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>123713</t>
+          <t>126804</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -7896,12 +7896,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>19,78%</t>
+          <t>20,27%</t>
         </is>
       </c>
     </row>
@@ -7924,12 +7924,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>24432</t>
+          <t>25565</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>59721</t>
+          <t>64031</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -7939,12 +7939,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>16,02%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>37,43%</t>
+          <t>40,13%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -7959,12 +7959,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>158292</t>
+          <t>158039</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>197493</t>
+          <t>195959</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -7974,12 +7974,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>33,97%</t>
+          <t>33,92%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>42,39%</t>
+          <t>42,06%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -7994,12 +7994,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>191978</t>
+          <t>189904</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>245132</t>
+          <t>249147</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -8009,12 +8009,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>30,69%</t>
+          <t>30,36%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>39,19%</t>
+          <t>39,83%</t>
         </is>
       </c>
     </row>
@@ -8037,12 +8037,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>75144</t>
+          <t>73641</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>117425</t>
+          <t>115346</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -8052,12 +8052,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>47,1%</t>
+          <t>46,16%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>73,6%</t>
+          <t>72,3%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -8072,12 +8072,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>166255</t>
+          <t>169185</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>211823</t>
+          <t>213368</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -8087,12 +8087,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>35,68%</t>
+          <t>36,31%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>45,46%</t>
+          <t>45,79%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -8107,12 +8107,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>254295</t>
+          <t>254894</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>316110</t>
+          <t>316460</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -8122,12 +8122,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>40,66%</t>
+          <t>40,75%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>50,54%</t>
+          <t>50,59%</t>
         </is>
       </c>
     </row>
@@ -8155,7 +8155,7 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>23063</t>
+          <t>21333</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -8170,7 +8170,7 @@
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>14,46%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -8185,12 +8185,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>5460</t>
+          <t>5422</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>24317</t>
+          <t>24823</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -8200,12 +8200,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -8220,12 +8220,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>9463</t>
+          <t>9342</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>38064</t>
+          <t>37144</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -8235,12 +8235,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>5,94%</t>
         </is>
       </c>
     </row>
@@ -8380,12 +8380,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>314582</t>
+          <t>316240</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>1032985</t>
+          <t>1034649</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -8395,12 +8395,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>50,6%</t>
+          <t>50,69%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -8415,12 +8415,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>344934</t>
+          <t>350772</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>1046504</t>
+          <t>997860</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -8430,12 +8430,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>49,01%</t>
+          <t>46,73%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -8450,12 +8450,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>682470</t>
+          <t>708671</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>1690473</t>
+          <t>1842368</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -8465,12 +8465,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>40,47%</t>
+          <t>44,11%</t>
         </is>
       </c>
     </row>
@@ -8493,12 +8493,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>556689</t>
+          <t>551608</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>973777</t>
+          <t>969521</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -8508,12 +8508,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>27,27%</t>
+          <t>27,02%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>47,7%</t>
+          <t>47,5%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -8528,12 +8528,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>490524</t>
+          <t>529877</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>836721</t>
+          <t>831364</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -8543,12 +8543,12 @@
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>22,97%</t>
+          <t>24,82%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>39,19%</t>
+          <t>38,93%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -8563,12 +8563,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>1232970</t>
+          <t>1175846</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>1734611</t>
+          <t>1720403</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -8578,12 +8578,12 @@
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>28,15%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>41,53%</t>
+          <t>41,19%</t>
         </is>
       </c>
     </row>
@@ -8606,12 +8606,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>435408</t>
+          <t>419243</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>749291</t>
+          <t>751598</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -8621,12 +8621,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>20,54%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>36,71%</t>
+          <t>36,82%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -8641,12 +8641,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>608001</t>
+          <t>588983</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>974342</t>
+          <t>978881</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -8656,12 +8656,12 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>28,47%</t>
+          <t>27,58%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>45,63%</t>
+          <t>45,84%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -8676,12 +8676,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>1197042</t>
+          <t>1137343</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>1689810</t>
+          <t>1672000</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -8691,12 +8691,12 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>28,66%</t>
+          <t>27,23%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>40,46%</t>
+          <t>40,03%</t>
         </is>
       </c>
     </row>
@@ -8719,12 +8719,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>10422</t>
+          <t>10288</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>48795</t>
+          <t>46852</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -8734,12 +8734,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -8754,12 +8754,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>27501</t>
+          <t>28278</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>59074</t>
+          <t>59952</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -8769,12 +8769,12 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -8789,12 +8789,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>45943</t>
+          <t>44091</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>94644</t>
+          <t>95985</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -8804,12 +8804,12 @@
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,3%</t>
         </is>
       </c>
     </row>
@@ -13416,12 +13416,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21847</t>
+          <t>21850</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>34770</t>
+          <t>34519</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -13436,7 +13436,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -13451,12 +13451,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12160</t>
+          <t>11977</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>22422</t>
+          <t>23103</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -13466,47 +13466,47 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
+          <t>11,33%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>44593</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>36326</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>53183</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
           <t>11,0%</t>
         </is>
       </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>44593</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>36855</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>54335</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>11,0%</t>
-        </is>
-      </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>13,12%</t>
         </is>
       </c>
     </row>
@@ -13529,12 +13529,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>60665</t>
+          <t>61433</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>78769</t>
+          <t>79593</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -13544,12 +13544,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,11%</t>
+          <t>30,49%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>39,09%</t>
+          <t>39,5%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -13564,12 +13564,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>32742</t>
+          <t>33653</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>48641</t>
+          <t>48824</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -13579,12 +13579,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>23,86%</t>
+          <t>23,95%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -13599,12 +13599,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>100061</t>
+          <t>98305</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>123396</t>
+          <t>123336</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -13614,12 +13614,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>24,69%</t>
+          <t>24,25%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>30,44%</t>
+          <t>30,43%</t>
         </is>
       </c>
     </row>
@@ -13642,12 +13642,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>93296</t>
+          <t>91907</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>112304</t>
+          <t>112116</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -13657,12 +13657,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>46,3%</t>
+          <t>45,61%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>55,74%</t>
+          <t>55,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -13677,12 +13677,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>124336</t>
+          <t>124452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>142845</t>
+          <t>142565</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -13692,12 +13692,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>60,99%</t>
+          <t>61,05%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>70,07%</t>
+          <t>69,94%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -13712,12 +13712,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>222667</t>
+          <t>222483</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>248282</t>
+          <t>250284</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -13727,12 +13727,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>54,93%</t>
+          <t>54,89%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>61,25%</t>
+          <t>61,75%</t>
         </is>
       </c>
     </row>
@@ -13755,12 +13755,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>170</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2329</t>
+          <t>2546</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -13775,7 +13775,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -13790,12 +13790,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9003</t>
+          <t>8867</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18122</t>
+          <t>18627</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -13805,12 +13805,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -13825,12 +13825,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>9640</t>
+          <t>10150</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>19412</t>
+          <t>20089</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -13840,12 +13840,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>4,96%</t>
         </is>
       </c>
     </row>
@@ -13985,12 +13985,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15172</t>
+          <t>15146</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26394</t>
+          <t>26166</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -14000,12 +14000,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,68%</t>
+          <t>21,49%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -14020,12 +14020,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17029</t>
+          <t>16815</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>28250</t>
+          <t>28500</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -14035,12 +14035,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>10,51%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>17,81%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -14055,12 +14055,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>34666</t>
+          <t>34496</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>50225</t>
+          <t>50374</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -14070,12 +14070,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>12,3%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>17,88%</t>
         </is>
       </c>
     </row>
@@ -14098,12 +14098,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>42526</t>
+          <t>43419</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>58326</t>
+          <t>58725</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -14113,12 +14113,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>34,93%</t>
+          <t>35,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>47,9%</t>
+          <t>48,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -14133,12 +14133,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>30612</t>
+          <t>30436</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>44480</t>
+          <t>44350</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -14148,12 +14148,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>27,8%</t>
+          <t>27,72%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -14168,12 +14168,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>77199</t>
+          <t>77892</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>99092</t>
+          <t>98653</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -14183,12 +14183,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>27,4%</t>
+          <t>27,65%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>35,17%</t>
+          <t>35,02%</t>
         </is>
       </c>
     </row>
@@ -14211,12 +14211,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>42827</t>
+          <t>42053</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>59174</t>
+          <t>57724</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -14226,12 +14226,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,17%</t>
+          <t>34,54%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>48,6%</t>
+          <t>47,41%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -14246,12 +14246,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>84682</t>
+          <t>84631</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>101477</t>
+          <t>101397</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -14261,12 +14261,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>52,93%</t>
+          <t>52,9%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>63,43%</t>
+          <t>63,38%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -14281,12 +14281,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>132799</t>
+          <t>132129</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>156015</t>
+          <t>155111</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -14296,12 +14296,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>47,13%</t>
+          <t>46,9%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>55,37%</t>
+          <t>55,05%</t>
         </is>
       </c>
     </row>
@@ -14329,7 +14329,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4310</t>
+          <t>3907</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -14359,12 +14359,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>4591</t>
+          <t>4571</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>11621</t>
+          <t>11943</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -14374,12 +14374,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -14394,12 +14394,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>5068</t>
+          <t>5354</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>12773</t>
+          <t>12974</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -14409,12 +14409,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,6%</t>
         </is>
       </c>
     </row>
@@ -14554,12 +14554,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>13032</t>
+          <t>13853</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>26867</t>
+          <t>27620</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -14569,12 +14569,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>29,5%</t>
+          <t>30,33%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -14589,12 +14589,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>4058</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>13867</t>
+          <t>14531</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -14604,12 +14604,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>27,19%</t>
+          <t>28,49%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -14624,12 +14624,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>19691</t>
+          <t>19901</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>35987</t>
+          <t>36475</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -14639,12 +14639,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>13,86%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>25,33%</t>
+          <t>25,67%</t>
         </is>
       </c>
     </row>
@@ -14667,12 +14667,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>35735</t>
+          <t>36471</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>50951</t>
+          <t>51436</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -14682,12 +14682,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>39,24%</t>
+          <t>40,04%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>55,94%</t>
+          <t>56,47%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -14702,12 +14702,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>13079</t>
+          <t>13180</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>23692</t>
+          <t>23768</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -14717,12 +14717,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>25,65%</t>
+          <t>25,84%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>46,46%</t>
+          <t>46,6%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -14737,12 +14737,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>51913</t>
+          <t>53500</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>71130</t>
+          <t>71867</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -14752,12 +14752,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>36,54%</t>
+          <t>37,66%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>50,06%</t>
+          <t>50,58%</t>
         </is>
       </c>
     </row>
@@ -14780,12 +14780,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>21330</t>
+          <t>21350</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>34679</t>
+          <t>34443</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -14795,12 +14795,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>23,44%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>38,08%</t>
+          <t>37,82%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -14815,12 +14815,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>15124</t>
+          <t>15221</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>25940</t>
+          <t>26046</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -14830,12 +14830,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>29,66%</t>
+          <t>29,84%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>50,86%</t>
+          <t>51,07%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -14850,12 +14850,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>39455</t>
+          <t>38446</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>56418</t>
+          <t>56610</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -14865,12 +14865,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>27,77%</t>
+          <t>27,06%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>39,71%</t>
+          <t>39,84%</t>
         </is>
       </c>
     </row>
@@ -14898,7 +14898,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5490</t>
+          <t>4239</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -14913,7 +14913,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -14928,12 +14928,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1745</t>
+          <t>1818</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>11593</t>
+          <t>11414</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -14943,12 +14943,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>22,73%</t>
+          <t>22,38%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -14963,12 +14963,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>2383</t>
+          <t>2263</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>13376</t>
+          <t>12900</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -14978,12 +14978,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>9,08%</t>
         </is>
       </c>
     </row>
@@ -15123,12 +15123,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>30332</t>
+          <t>29574</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>51664</t>
+          <t>51110</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -15138,12 +15138,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>33,22%</t>
+          <t>32,87%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -15158,12 +15158,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>24670</t>
+          <t>24472</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>40167</t>
+          <t>39554</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -15173,12 +15173,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>17,08%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>28,03%</t>
+          <t>27,6%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -15193,12 +15193,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>58459</t>
+          <t>59823</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>84405</t>
+          <t>86086</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -15208,12 +15208,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>20,02%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>28,25%</t>
+          <t>28,81%</t>
         </is>
       </c>
     </row>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>46306</t>
+          <t>44998</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>65369</t>
+          <t>65316</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -15251,12 +15251,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>29,78%</t>
+          <t>28,94%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>42,03%</t>
+          <t>42,0%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -15271,12 +15271,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>37988</t>
+          <t>37826</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>57123</t>
+          <t>56097</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -15286,12 +15286,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>26,51%</t>
+          <t>26,4%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>39,86%</t>
+          <t>39,15%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -15306,12 +15306,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>89827</t>
+          <t>89551</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>116152</t>
+          <t>117634</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -15321,12 +15321,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>30,06%</t>
+          <t>29,97%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>38,87%</t>
+          <t>39,37%</t>
         </is>
       </c>
     </row>
@@ -15349,12 +15349,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>49559</t>
+          <t>50386</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>69643</t>
+          <t>70440</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -15364,12 +15364,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>31,87%</t>
+          <t>32,4%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>44,78%</t>
+          <t>45,3%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -15384,12 +15384,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>52882</t>
+          <t>53269</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>70672</t>
+          <t>71833</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -15399,12 +15399,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>36,9%</t>
+          <t>37,18%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>49,32%</t>
+          <t>50,13%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -15419,12 +15419,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>108281</t>
+          <t>107436</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>135082</t>
+          <t>135160</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -15434,12 +15434,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>36,24%</t>
+          <t>35,96%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>45,21%</t>
+          <t>45,23%</t>
         </is>
       </c>
     </row>
@@ -15462,12 +15462,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>477</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>4419</t>
+          <t>4549</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -15477,12 +15477,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -15497,12 +15497,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>1384</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>6255</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -15512,12 +15512,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -15532,12 +15532,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>2611</t>
+          <t>2468</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>9134</t>
+          <t>9223</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -15547,12 +15547,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,09%</t>
         </is>
       </c>
     </row>
@@ -15692,12 +15692,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>5308</t>
+          <t>5549</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>13560</t>
+          <t>13315</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -15707,12 +15707,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>28,0%</t>
+          <t>27,5%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -15727,12 +15727,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>17162</t>
+          <t>17747</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>32467</t>
+          <t>32675</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -15742,12 +15742,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>21,82%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>39,91%</t>
+          <t>40,17%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -15762,12 +15762,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>24854</t>
+          <t>24268</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>42659</t>
+          <t>41376</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -15777,12 +15777,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>32,87%</t>
+          <t>31,88%</t>
         </is>
       </c>
     </row>
@@ -15805,12 +15805,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>18528</t>
+          <t>18660</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>30181</t>
+          <t>29981</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -15820,12 +15820,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>38,26%</t>
+          <t>38,53%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>62,32%</t>
+          <t>61,91%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -15840,12 +15840,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>16348</t>
+          <t>16501</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>29123</t>
+          <t>29561</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -15855,12 +15855,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>20,1%</t>
+          <t>20,28%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>35,8%</t>
+          <t>36,34%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -15875,12 +15875,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>38748</t>
+          <t>38534</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>56992</t>
+          <t>56332</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -15890,12 +15890,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>29,86%</t>
+          <t>29,69%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>43,92%</t>
+          <t>43,41%</t>
         </is>
       </c>
     </row>
@@ -15918,12 +15918,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>9731</t>
+          <t>9885</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>19713</t>
+          <t>19792</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -15933,12 +15933,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>20,09%</t>
+          <t>20,41%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>40,71%</t>
+          <t>40,87%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -15953,12 +15953,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>25586</t>
+          <t>26232</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>40164</t>
+          <t>40831</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -15968,12 +15968,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>31,45%</t>
+          <t>32,25%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>49,37%</t>
+          <t>50,19%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -15988,12 +15988,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>38316</t>
+          <t>38113</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>57357</t>
+          <t>55244</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -16003,12 +16003,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>29,53%</t>
+          <t>29,37%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>44,2%</t>
+          <t>42,57%</t>
         </is>
       </c>
     </row>
@@ -16036,7 +16036,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>4370</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -16051,7 +16051,7 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -16066,12 +16066,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>484</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>5689</t>
+          <t>5604</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -16081,12 +16081,12 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -16101,12 +16101,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>956</t>
+          <t>868</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>7073</t>
+          <t>7013</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -16116,12 +16116,12 @@
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>5,4%</t>
         </is>
       </c>
     </row>
@@ -16266,7 +16266,7 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3256</t>
+          <t>3119</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -16281,7 +16281,7 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -16296,12 +16296,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>2918</t>
+          <t>2917</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>8968</t>
+          <t>8680</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -16316,7 +16316,7 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -16331,12 +16331,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>3452</t>
+          <t>3440</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>9903</t>
+          <t>10499</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -16346,12 +16346,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>11,8%</t>
         </is>
       </c>
     </row>
@@ -16374,12 +16374,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>4233</t>
+          <t>4031</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>13723</t>
+          <t>13408</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -16389,12 +16389,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>41,65%</t>
+          <t>40,69%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -16409,12 +16409,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>10193</t>
+          <t>10458</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>20045</t>
+          <t>20499</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -16424,12 +16424,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>18,2%</t>
+          <t>18,68%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>35,8%</t>
+          <t>36,61%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -16444,12 +16444,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>17016</t>
+          <t>16372</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>29973</t>
+          <t>30533</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -16459,12 +16459,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>33,7%</t>
+          <t>34,33%</t>
         </is>
       </c>
     </row>
@@ -16487,12 +16487,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>11953</t>
+          <t>12314</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>21901</t>
+          <t>22024</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -16502,12 +16502,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>36,28%</t>
+          <t>37,37%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>66,47%</t>
+          <t>66,84%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -16522,12 +16522,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>24693</t>
+          <t>23820</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>35253</t>
+          <t>35424</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -16537,12 +16537,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>44,1%</t>
+          <t>42,54%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>62,96%</t>
+          <t>63,26%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -16557,12 +16557,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>39081</t>
+          <t>39351</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>54033</t>
+          <t>54032</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -16572,7 +16572,7 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>43,94%</t>
+          <t>44,24%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
@@ -16600,12 +16600,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>3587</t>
+          <t>3619</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>13842</t>
+          <t>13755</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -16615,12 +16615,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>42,01%</t>
+          <t>41,75%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -16635,12 +16635,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>3030</t>
+          <t>2796</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>10466</t>
+          <t>10971</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -16650,12 +16650,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>19,59%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -16670,12 +16670,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>8666</t>
+          <t>8372</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>21261</t>
+          <t>20772</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -16685,12 +16685,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>23,9%</t>
+          <t>23,35%</t>
         </is>
       </c>
     </row>
@@ -16830,12 +16830,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>100758</t>
+          <t>101507</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>134666</t>
+          <t>134150</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -16845,12 +16845,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>15,59%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>20,6%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -16865,12 +16865,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>93468</t>
+          <t>93404</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>122212</t>
+          <t>121125</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -16880,12 +16880,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -16900,12 +16900,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>202330</t>
+          <t>200420</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>245739</t>
+          <t>245974</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -16915,12 +16915,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>18,27%</t>
         </is>
       </c>
     </row>
@@ -16943,12 +16943,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>233188</t>
+          <t>232414</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>269713</t>
+          <t>270525</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -16958,12 +16958,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>35,81%</t>
+          <t>35,69%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>41,42%</t>
+          <t>41,54%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -16978,12 +16978,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>163389</t>
+          <t>162813</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>197722</t>
+          <t>197747</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -16993,7 +16993,7 @@
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>23,49%</t>
+          <t>23,41%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
@@ -17013,12 +17013,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>405834</t>
+          <t>407262</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>456223</t>
+          <t>457097</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -17028,12 +17028,12 @@
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>30,14%</t>
+          <t>30,24%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>33,88%</t>
+          <t>33,94%</t>
         </is>
       </c>
     </row>
@@ -17056,12 +17056,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>250059</t>
+          <t>252435</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>287095</t>
+          <t>291117</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -17071,12 +17071,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>38,4%</t>
+          <t>38,76%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>44,09%</t>
+          <t>44,7%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -17091,12 +17091,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>353553</t>
+          <t>352734</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>391688</t>
+          <t>389867</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -17106,12 +17106,12 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>50,84%</t>
+          <t>50,72%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>56,32%</t>
+          <t>56,06%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -17126,12 +17126,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>614823</t>
+          <t>613930</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>669767</t>
+          <t>670153</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -17141,12 +17141,12 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>45,65%</t>
+          <t>45,59%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>49,73%</t>
+          <t>49,76%</t>
         </is>
       </c>
     </row>
@@ -17169,12 +17169,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>7542</t>
+          <t>7940</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>21928</t>
+          <t>22874</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -17184,12 +17184,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -17204,12 +17204,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>29656</t>
+          <t>29874</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>48392</t>
+          <t>46229</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -17219,12 +17219,12 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -17239,12 +17239,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>40150</t>
+          <t>39184</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>61981</t>
+          <t>62329</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -17254,12 +17254,12 @@
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>4,63%</t>
         </is>
       </c>
     </row>
